--- a/Estatísticas.xlsx
+++ b/Estatísticas.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="13">
   <si>
     <t>algoritmo</t>
   </si>
@@ -61,64 +61,13 @@
     <t>tempo (seg)</t>
   </si>
   <si>
-    <t>0.0689</t>
-  </si>
-  <si>
-    <t>4.8144</t>
-  </si>
-  <si>
-    <t>0.0013</t>
-  </si>
-  <si>
-    <t>38.6835</t>
-  </si>
-  <si>
     <t>Profundidade máxima</t>
   </si>
   <si>
-    <t>0.0520</t>
-  </si>
-  <si>
-    <t>2.2148</t>
-  </si>
-  <si>
-    <t>0.0277</t>
-  </si>
-  <si>
-    <t>7.9453</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.0023</t>
-  </si>
-  <si>
-    <t>439.1406</t>
-  </si>
-  <si>
     <t>fator de ramificação (margem 0.5 erro)</t>
   </si>
   <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>38.75</t>
-  </si>
-  <si>
     <t>indefinido</t>
-  </si>
-  <si>
-    <t>0.0272</t>
-  </si>
-  <si>
-    <t>1.5190</t>
-  </si>
-  <si>
-    <t>6.9886e-6</t>
   </si>
 </sst>
 </file>
@@ -477,7 +426,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,105 +460,31 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1536</v>
-      </c>
-      <c r="D2">
-        <v>64</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>96</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>72</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -618,6 +493,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -657,193 +606,30 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>440</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>440</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1144711</v>
-      </c>
-      <c r="D4">
-        <v>343</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -885,10 +671,10 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -947,10 +733,10 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1009,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/Estatísticas.xlsx
+++ b/Estatísticas.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>algoritmo</t>
   </si>
@@ -69,13 +69,108 @@
   <si>
     <t>indefinido</t>
   </si>
+  <si>
+    <t>0.0645</t>
+  </si>
+  <si>
+    <t>5.0859</t>
+  </si>
+  <si>
+    <t>0.0021</t>
+  </si>
+  <si>
+    <t>29.7340</t>
+  </si>
+  <si>
+    <t>0.0862</t>
+  </si>
+  <si>
+    <t>1.9682</t>
+  </si>
+  <si>
+    <t>0.0425</t>
+  </si>
+  <si>
+    <t>6.3798</t>
+  </si>
+  <si>
+    <t>0.0666</t>
+  </si>
+  <si>
+    <t>14.5312</t>
+  </si>
+  <si>
+    <t>0.0064</t>
+  </si>
+  <si>
+    <t>154.6972</t>
+  </si>
+  <si>
+    <t>0.0839</t>
+  </si>
+  <si>
+    <t>1.3555</t>
+  </si>
+  <si>
+    <t>0.0033</t>
+  </si>
+  <si>
+    <t>2.4744</t>
+  </si>
+  <si>
+    <t>0.00002</t>
+  </si>
+  <si>
+    <t>4.8211</t>
+  </si>
+  <si>
+    <t>0.0336</t>
+  </si>
+  <si>
+    <t>1.1348</t>
+  </si>
+  <si>
+    <t>0.0298</t>
+  </si>
+  <si>
+    <t>0.0376</t>
+  </si>
+  <si>
+    <t>1.1787</t>
+  </si>
+  <si>
+    <t>1.3643</t>
+  </si>
+  <si>
+    <t>0.0282</t>
+  </si>
+  <si>
+    <t>1.3457</t>
+  </si>
+  <si>
+    <t>Indefinido</t>
+  </si>
+  <si>
+    <t>0.0175</t>
+  </si>
+  <si>
+    <t>1.0564</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,12 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,6 +220,5788 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Nós</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> gerados e nós espandidos Tabuleiro A</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro A'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos gerados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro A'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro A'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F18A-4054-BB0B-581270A1C196}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro A'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro A'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro A'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F18A-4054-BB0B-581270A1C196}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="349992872"/>
+        <c:axId val="349989264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349992872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349989264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349989264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349992872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Nós</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> gerados e nós espandidos Tabuleiro B</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro B'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos gerados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro B'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro B'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-242D-4CEC-8691-5E4752BB0508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro B'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro B'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro B'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-242D-4CEC-8691-5E4752BB0508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="349992872"/>
+        <c:axId val="349989264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349992872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349989264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349989264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349992872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Nós</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> gerados e nós espandidos Tabuleiro C</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro C'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos gerados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro C'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro C'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>368294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E150-4DC2-BCAC-5D3E09BD1CDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro C'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro C'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro C'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E150-4DC2-BCAC-5D3E09BD1CDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="349992872"/>
+        <c:axId val="349989264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349992872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349989264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349989264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349992872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Nós</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> gerados e nós espandidos Tabuleiro D</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro D'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos gerados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro D'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro D'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B768-416A-9BEF-E2A834F67FE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro D'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro D'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro D'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B768-416A-9BEF-E2A834F67FE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="349992872"/>
+        <c:axId val="349989264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349992872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349989264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349989264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349992872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Nós</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> gerados e nós espandidos Tabuleiro E</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro E'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos gerados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro E'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro E'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74B0-4565-B9D5-988F8E06A6DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro E'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro E'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro E'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74B0-4565-B9D5-988F8E06A6DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="349992872"/>
+        <c:axId val="349989264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349992872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349989264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349989264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349992872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Nós</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> gerados e nós espandidos Tabuleiro F</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro F'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos gerados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro F'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro F'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>5980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37A2-474C-99AC-834E4F84F60F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabuleiro F'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nos expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabuleiro F'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabuleiro F'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37A2-474C-99AC-834E4F84F60F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="349992872"/>
+        <c:axId val="349989264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349992872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349989264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349989264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349992872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB10A73E-0258-4412-8333-4B4ABEAA9BA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A99CC06-ACE3-42B4-8217-5A81103AEBD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4BE6E2-4090-45A2-A0E1-84B361CFEE69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F68956A-CEDC-493A-851C-510A877D7C26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032A1140-FF7F-4CCB-8788-BF6943D6B632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D91EA8-656F-4807-AFB4-F948B9B58100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,7 +6304,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,25 +6348,101 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>914</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -497,7 +6451,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +6496,24 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>155</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -553,16 +6524,51 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -571,7 +6577,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,10 +6630,165 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>143</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>368294</v>
+      </c>
+      <c r="D4">
+        <v>343</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2357</v>
+      </c>
+      <c r="D5">
+        <v>155</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1159</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -635,71 +6796,16 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -708,10 +6814,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -743,25 +6858,85 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>770</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>536</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>602</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -770,10 +6945,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -805,15 +6989,42 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5980</v>
+      </c>
+      <c r="D3">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -821,8 +7032,12 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Estatísticas.xlsx
+++ b/Estatísticas.xlsx
@@ -6304,7 +6304,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Estatísticas.xlsx
+++ b/Estatísticas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tabuleiro A" sheetId="1" r:id="rId1"/>
@@ -5922,16 +5922,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6303,7 +6303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -6451,7 +6451,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6519,6 +6519,9 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6577,7 +6580,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6813,138 +6816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>770</v>
-      </c>
-      <c r="D3">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>536</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>602</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6998,6 +6870,137 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>770</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>536</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>602</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
